--- a/logs/charts_results_files/data_ws_10.xlsx
+++ b/logs/charts_results_files/data_ws_10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joela\crc-p2\logs\charts_results_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D33E1A-EBA6-46DF-9A20-CB289BD09E55}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7A95CC-AC16-4245-B41E-7DEEF8E67F6C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6024" xr2:uid="{7BCBB6FA-6256-42E5-835E-38D250AD9F33}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="6030" xr2:uid="{7BCBB6FA-6256-42E5-835E-38D250AD9F33}"/>
   </bookViews>
   <sheets>
     <sheet name="Propensities" sheetId="1" r:id="rId1"/>
@@ -158,7 +158,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="pt-PT"/>
-              <a:t>BA</a:t>
+              <a:t>WS</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2567,16 +2567,16 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>-1.3345299991297279</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>-1.84250176487049</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>-0.89610541734262905</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>-1.2062549271920999</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>0.26297131935110402</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>-1.9094108384825501</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>-2.3901088048102799</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>-0.68287033001577402</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>-0.99873768472504199</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>-1.74640622076742</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>-0.95214967610341605</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>-0.96096609450053505</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>-1.1293905194710301</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>-1.1276711840721301</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>-0.37520971292528099</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>-1.18532171509074</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>-1.5109863360186999</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>-1.9177320592070299</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>-1.4506814000055701</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>-0.92142900187306098</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>-1.2436038906720399</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>-1.43572283110684</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>-1.00679092267176</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>-1.1931418615537499</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>-2.0231969286544098</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>-1.7064127469142001</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>-2.2829634258703302</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>-1.32227694184616</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>-1.2266308207865899</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>-3.2052233242128598</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3235,13 +3235,13 @@
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>2.4415333333333327</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>2.3010000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>2.2360000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>2.3420000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>2.6309999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>2.5249999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>2.5720000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>2.294</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>2.4820000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>2.2909999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>2.4209999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>2.4430000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>2.427</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>2.4990000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>2.3490000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>2.2440000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>2.2879999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>2.702</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>2.3149999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>2.2429999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>2.4910000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>2.2130000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3900,14 +3900,14 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>3.267655388722051</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>3.26412812812812</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>3.2680200200200198</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>3.2679939939939899</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>3.2686046046046</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>3.2687627627627598</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>3.26796996996997</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>3.2684884884884799</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>3.2646666666666602</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>3.2659959959959899</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>3.2684104104104099</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>3.2684824824824799</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>3.2670270270270199</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>3.26653453453453</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>3.2686066066066002</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>3.2666506506506501</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>3.2683083083083</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>3.27065465465465</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>3.2709929929929902</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>3.2671651651651601</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>3.2658018018017998</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>3.2641181181181098</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>3.26865265265265</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>3.2699939939939902</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>3.2666526526526498</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>3.26801001001001</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>3.2695315315315301</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>3.2671231231231199</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>3.2664724724724699</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>3.2693293293293202</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
